--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Technology Name</t>
   </si>
@@ -89,6 +89,30 @@
   </si>
   <si>
     <t>Bibliography</t>
+  </si>
+  <si>
+    <t>Boilers</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Jimeno A. Fonseca, Thuy-An Nguyen, Arno Schlueter, Francois Marechal</t>
+  </si>
+  <si>
+    <t>City Energy Analyst: Integrated framework for analysis and optimization of building energy systems in neighborhoods and city districts</t>
+  </si>
+  <si>
+    <t>x' is in Watts</t>
+  </si>
+  <si>
+    <t>Combined Gas cycle turbine</t>
+  </si>
+  <si>
+    <t>No range</t>
+  </si>
+  <si>
+    <t>x' is in kiloWatts</t>
   </si>
 </sst>
 </file>
@@ -124,8 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +448,7 @@
     <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,23 +489,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>84000</v>
+      </c>
+      <c r="D2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>320000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="O3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>35100</v>
+      </c>
+      <c r="D3">
+        <v>0.11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G3">
+        <v>90000</v>
+      </c>
+      <c r="H3">
+        <v>320000</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>20300</v>
+      </c>
+      <c r="D4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>28000</v>
+      </c>
+      <c r="H4">
+        <v>90000</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>32978</v>
+      </c>
+      <c r="E6">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -495,6 +633,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,6 +654,20 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Technology Name</t>
   </si>
@@ -103,16 +103,43 @@
     <t>City Energy Analyst: Integrated framework for analysis and optimization of building energy systems in neighborhoods and city districts</t>
   </si>
   <si>
-    <t>x' is in Watts</t>
-  </si>
-  <si>
     <t>Combined Gas cycle turbine</t>
   </si>
   <si>
     <t>No range</t>
   </si>
   <si>
-    <t>x' is in kiloWatts</t>
+    <t>x is in m2</t>
+  </si>
+  <si>
+    <t>Heat Exchangers &amp; Substation</t>
+  </si>
+  <si>
+    <t>Fuel Cell</t>
+  </si>
+  <si>
+    <t>Photovoltaic Panels</t>
+  </si>
+  <si>
+    <t>10kW</t>
+  </si>
+  <si>
+    <t>200kW</t>
+  </si>
+  <si>
+    <t>x is in kW</t>
+  </si>
+  <si>
+    <t>x is in Watts</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Solar Collector</t>
+  </si>
+  <si>
+    <t>PV-thermal</t>
   </si>
 </sst>
 </file>
@@ -435,15 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -518,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -590,7 +617,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -605,7 +632,7 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>25</v>
@@ -614,7 +641,178 @@
         <v>1</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>30</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1209.5905171657048</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3500</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2500</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2050</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Technology Name</t>
   </si>
@@ -140,6 +140,27 @@
   </si>
   <si>
     <t>PV-thermal</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>CGCT1</t>
+  </si>
+  <si>
+    <t>HEX1</t>
+  </si>
+  <si>
+    <t>FC1</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>PVT1</t>
   </si>
 </sst>
 </file>
@@ -465,7 +486,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +541,9 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
       <c r="C2">
         <v>84000</v>
       </c>
@@ -558,6 +582,9 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
       <c r="C3">
         <v>35100</v>
       </c>
@@ -590,6 +617,9 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4">
         <v>20300</v>
       </c>
@@ -619,6 +649,9 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -648,6 +681,9 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -677,6 +713,9 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -706,6 +745,9 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -735,6 +777,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -764,6 +809,9 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -793,6 +841,9 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -801,6 +852,9 @@
       </c>
       <c r="E17">
         <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Technology Name</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>x is in Watts</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Solar Collector</t>
@@ -483,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,7 +539,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>84000</v>
@@ -583,7 +580,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>35100</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>20300</v>
@@ -645,9 +642,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>32978</v>
+      </c>
+      <c r="E5">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -656,48 +685,83 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>32978</v>
+        <v>1209.5905171657048</v>
       </c>
       <c r="E6">
-        <v>0.59670000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="F6" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>12000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1209.5905171657048</v>
+        <v>3500</v>
       </c>
       <c r="E8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>0.05</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
       </c>
       <c r="I8">
         <v>20</v>
@@ -706,21 +770,50 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2500</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12000</v>
+        <v>2050</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -732,140 +825,44 @@
         <v>28</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>3500</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12">
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2500</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>2050</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>5000</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>35</v>
       </c>
     </row>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="2" r:id="rId2"/>
+    <sheet name="Conversion" sheetId="1" r:id="rId1"/>
+    <sheet name="Storage" sheetId="3" r:id="rId2"/>
+    <sheet name="Distribution" sheetId="4" r:id="rId3"/>
+    <sheet name="Reference" sheetId="2" r:id="rId4"/>
+    <sheet name="Equations" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>Technology Name</t>
   </si>
@@ -103,9 +106,6 @@
     <t>City Energy Analyst: Integrated framework for analysis and optimization of building energy systems in neighborhoods and city districts</t>
   </si>
   <si>
-    <t>Combined Gas cycle turbine</t>
-  </si>
-  <si>
     <t>No range</t>
   </si>
   <si>
@@ -121,30 +121,12 @@
     <t>Photovoltaic Panels</t>
   </si>
   <si>
-    <t>10kW</t>
-  </si>
-  <si>
-    <t>200kW</t>
-  </si>
-  <si>
-    <t>x is in kW</t>
-  </si>
-  <si>
-    <t>x is in Watts</t>
-  </si>
-  <si>
-    <t>Solar Collector</t>
-  </si>
-  <si>
     <t>PV-thermal</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>CGCT1</t>
-  </si>
-  <si>
     <t>HEX1</t>
   </si>
   <si>
@@ -158,6 +140,66 @@
   </si>
   <si>
     <t>PVT1</t>
+  </si>
+  <si>
+    <t>capacity_min</t>
+  </si>
+  <si>
+    <t>capacity_max</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Equation number</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>OC_Fixed*x + OC_variable*(utilities)</t>
+  </si>
+  <si>
+    <t>Combined Cycle Gas Turbine</t>
+  </si>
+  <si>
+    <t>CCGT1</t>
+  </si>
+  <si>
+    <t>Solar Thermal Collectors</t>
+  </si>
+  <si>
+    <t>x_unit</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>x_min</t>
+  </si>
+  <si>
+    <t>x_max</t>
   </si>
 </sst>
 </file>
@@ -193,13 +235,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,20 +528,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -525,21 +576,24 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>84000</v>
@@ -550,23 +604,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
+      <c r="F2">
         <v>320000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
+      <c r="K2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -578,9 +632,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>35100</v>
@@ -591,19 +645,19 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.05</v>
+      <c r="F3">
+        <v>90000</v>
       </c>
       <c r="G3">
-        <v>90000</v>
-      </c>
-      <c r="H3">
         <v>320000</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="K3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
@@ -613,9 +667,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>20300</v>
@@ -626,28 +680,28 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.05</v>
+      <c r="F4">
+        <v>28000</v>
       </c>
       <c r="G4">
-        <v>28000</v>
-      </c>
-      <c r="H4">
         <v>90000</v>
       </c>
       <c r="I4">
         <v>20</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -658,212 +712,183 @@
       <c r="E5">
         <v>0.59670000000000001</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
       </c>
       <c r="I5">
         <v>25</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1209.5905171657048</v>
+        <v>12000</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
         <v>0.05</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1">
         <v>0.05</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.05</v>
+      <c r="F8">
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I8">
         <v>20</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>20</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="K9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
       </c>
       <c r="I10">
         <v>20</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="K10" s="1">
         <v>0.05</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
+      <c r="N10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -873,20 +898,176 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1209.5905171657048</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -903,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,6 +1096,65 @@
       </c>
       <c r="D2">
         <v>2016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion" sheetId="1" r:id="rId1"/>
     <sheet name="Storage" sheetId="3" r:id="rId2"/>
     <sheet name="Distribution" sheetId="4" r:id="rId3"/>
-    <sheet name="Reference" sheetId="2" r:id="rId4"/>
-    <sheet name="Equations" sheetId="5" r:id="rId5"/>
+    <sheet name="Equations" sheetId="5" r:id="rId4"/>
+    <sheet name="Reference" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
   <si>
     <t>Technology Name</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Interest Rate</t>
   </si>
   <si>
-    <t>Range 1</t>
-  </si>
-  <si>
-    <t>Range 2</t>
-  </si>
-  <si>
     <t>Life Time</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>No range</t>
   </si>
   <si>
-    <t>x is in m2</t>
-  </si>
-  <si>
     <t>Heat Exchangers &amp; Substation</t>
   </si>
   <si>
@@ -142,12 +133,6 @@
     <t>PVT1</t>
   </si>
   <si>
-    <t>capacity_min</t>
-  </si>
-  <si>
-    <t>capacity_max</t>
-  </si>
-  <si>
     <t>Equation</t>
   </si>
   <si>
@@ -200,6 +185,75 @@
   </si>
   <si>
     <t>x_max</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>equation_investment</t>
+  </si>
+  <si>
+    <t>equation_operation</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>a*x</t>
+  </si>
+  <si>
+    <t>Mehleri et al., 2012</t>
+  </si>
+  <si>
+    <t>A mathematical programming approach for optimal design of distributed energy systems at the neighbourhood level</t>
+  </si>
+  <si>
+    <t>PV2</t>
+  </si>
+  <si>
+    <t>Pipelines</t>
+  </si>
+  <si>
+    <t>PIPE1</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Buoro et al., 2014</t>
+  </si>
+  <si>
+    <t>Optimization of a Distributed Cogeneration System with solar district heating.</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Heat loss coefficient</t>
+  </si>
+  <si>
+    <t>2 kJ/hm2</t>
+  </si>
+  <si>
+    <t>0.45 kJ/hm2</t>
+  </si>
+  <si>
+    <t>LTES1</t>
+  </si>
+  <si>
+    <t>LTES2</t>
+  </si>
+  <si>
+    <t>Long-term Thermal Energy Storage</t>
   </si>
 </sst>
 </file>
@@ -528,366 +582,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>84000</v>
+      </c>
+      <c r="E2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>320000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>35100</v>
+      </c>
+      <c r="E3">
+        <v>0.11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>90000</v>
+      </c>
+      <c r="H3">
+        <v>320000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>20300</v>
+      </c>
+      <c r="E4">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>28000</v>
+      </c>
+      <c r="H4">
+        <v>90000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>32978</v>
+      </c>
+      <c r="F6">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>12000</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="M7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C2">
-        <v>84000</v>
-      </c>
-      <c r="D2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>320000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3500</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M8" s="1">
         <v>0.05</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C3">
-        <v>35100</v>
-      </c>
-      <c r="D3">
-        <v>0.11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>90000</v>
-      </c>
-      <c r="G3">
-        <v>320000</v>
-      </c>
-      <c r="I3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M9" s="1">
         <v>0.05</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>20300</v>
-      </c>
-      <c r="D4">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>28000</v>
-      </c>
-      <c r="G4">
-        <v>90000</v>
-      </c>
-      <c r="I4">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>4305</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10">
         <v>20</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2050</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.05</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>32978</v>
-      </c>
-      <c r="E5">
-        <v>0.59670000000000001</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>12000</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.05</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>3500</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2500</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2050</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>5000</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N10">
+      <c r="Q12">
         <v>1</v>
       </c>
     </row>
@@ -898,23 +1046,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -922,38 +1071,118 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,89 +1191,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1209.5905171657048</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>0.6</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5">
         <v>0.05</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1054,61 +1319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
-        <v>2016</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,41 +1334,131 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Distribution" sheetId="4" r:id="rId3"/>
     <sheet name="Equations" sheetId="5" r:id="rId4"/>
     <sheet name="Reference" sheetId="2" r:id="rId5"/>
+    <sheet name="Terminology" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>Technology Name</t>
   </si>
@@ -139,12 +140,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Equation number</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>I1</t>
   </si>
   <si>
@@ -254,6 +249,75 @@
   </si>
   <si>
     <t>Long-term Thermal Energy Storage</t>
+  </si>
+  <si>
+    <t>Equation code</t>
+  </si>
+  <si>
+    <t>maintanence_cost</t>
+  </si>
+  <si>
+    <t>maintanence_unit</t>
+  </si>
+  <si>
+    <t>[3] Buoro et al., 2014</t>
+  </si>
+  <si>
+    <t>Maintanence cost</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>maintanence</t>
+  </si>
+  <si>
+    <t>x is the capital cost</t>
+  </si>
+  <si>
+    <t>x is the equipment size</t>
+  </si>
+  <si>
+    <t>x is the equpment size</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>equipment size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital cost </t>
+  </si>
+  <si>
+    <t>equipment size/ capital cost</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel cost </t>
+  </si>
+  <si>
+    <t>Operation&amp; Maintanence cost</t>
+  </si>
+  <si>
+    <t>capital cost/ usage</t>
+  </si>
+  <si>
+    <t>Note on the variables</t>
   </si>
 </sst>
 </file>
@@ -289,9 +353,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,65 +657,67 @@
     <col min="2" max="3" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -674,32 +739,29 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
-      <c r="M2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -719,25 +781,22 @@
         <v>320000</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
-      <c r="M3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>13</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -757,27 +816,24 @@
         <v>90000</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="M4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -786,25 +842,24 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>20</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="Q5">
+      <c r="R5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -819,22 +874,19 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>25</v>
       </c>
-      <c r="M6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -854,22 +906,19 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -892,22 +941,19 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>20</v>
       </c>
-      <c r="M8" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -927,30 +973,27 @@
         <v>200</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K9">
         <v>20</v>
       </c>
-      <c r="M9" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>4305</v>
@@ -959,19 +1002,18 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>20</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -989,22 +1031,19 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>20</v>
       </c>
-      <c r="M11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1024,18 +1063,15 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="M12" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1</v>
       </c>
     </row>
@@ -1048,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,126 +1099,126 @@
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2">
         <v>40</v>
       </c>
       <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,112 +1240,112 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>1209.5905171657048</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3">
         <v>20</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.05</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1319,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,11 +1366,12 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>37</v>
@@ -1343,43 +1380,60 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1423,10 +1477,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D2">
@@ -1438,10 +1492,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D3">
         <v>2012</v>
@@ -1452,13 +1506,90 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>Technology Name</t>
   </si>
@@ -308,16 +308,28 @@
     <t xml:space="preserve">Labour cost </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel cost </t>
-  </si>
-  <si>
-    <t>Operation&amp; Maintanence cost</t>
-  </si>
-  <si>
     <t>capital cost/ usage</t>
   </si>
   <si>
     <t>Note on the variables</t>
+  </si>
+  <si>
+    <t>Financial cost</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility cost </t>
+  </si>
+  <si>
+    <t>Interest rate</t>
+  </si>
+  <si>
+    <t>Pumps</t>
   </si>
 </sst>
 </file>
@@ -645,23 +657,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="3" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" customWidth="1"/>
+    <col min="16" max="18" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,10 +726,13 @@
         <v>54</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -748,20 +763,20 @@
       <c r="K2">
         <v>20</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -786,17 +801,17 @@
       <c r="K3">
         <v>20</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
         <v>13</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -821,11 +836,11 @@
       <c r="K4">
         <v>20</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -850,11 +865,11 @@
       <c r="K5">
         <v>20</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -882,11 +897,11 @@
       <c r="K6">
         <v>25</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -914,11 +929,11 @@
       <c r="K7">
         <v>10</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -949,11 +964,11 @@
       <c r="K8">
         <v>20</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -981,11 +996,11 @@
       <c r="K9">
         <v>20</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1039,11 +1054,11 @@
       <c r="K11">
         <v>20</v>
       </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1086,7 @@
       <c r="K12">
         <v>20</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1</v>
       </c>
     </row>
@@ -1088,18 +1103,18 @@
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" customWidth="1"/>
+    <col min="14" max="16" width="18.7265625" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1216,7 +1231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
@@ -1227,20 +1242,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1346,6 +1361,11 @@
       </c>
       <c r="J3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1357,19 +1377,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" customWidth="1"/>
+    <col min="4" max="4" width="49.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1380,10 +1400,10 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1422,7 +1442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1449,14 +1469,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1487,7 +1507,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1501,7 +1521,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1522,20 +1542,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.26953125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1546,9 +1566,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>89</v>
@@ -1557,7 +1577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>90</v>
       </c>
@@ -1565,31 +1585,36 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
-        <v>96</v>
+      <c r="C7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/Technology-cost-database.xlsx
+++ b/cea/databases/Technology-cost-database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>Technology Name</t>
   </si>
@@ -275,9 +275,6 @@
     <t>x is the capital cost</t>
   </si>
   <si>
-    <t>x is the equipment size</t>
-  </si>
-  <si>
     <t>x is the equpment size</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Pumps</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -659,13 +659,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="K1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.26953125" customWidth="1"/>
     <col min="7" max="7" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="20.81640625" customWidth="1"/>
@@ -675,10 +675,10 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>62</v>
@@ -726,7 +726,7 @@
         <v>54</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>8</v>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,7 +1400,7 @@
         <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1414,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1430,29 +1430,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1557,56 +1543,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,7 +1600,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
